--- a/reports/error_report.xlsx
+++ b/reports/error_report.xlsx
@@ -319,28 +319,28 @@
     <t>LLM-enhanced review of spelling/grammar:</t>
   </si>
   <si>
-    <t>Variants found: {'Title Insurance', 'Title Ins', 'Title Association'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'This Privacy', 'This Notice', 'This Commitment', 'This\nCommitment'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Commitment Conditions', 'Commitment\nCondition', 'Commitment Date', 'Commitment Condition'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Proposed Policy', 'Proposed Amount', 'Proposed Insured'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'President\nAuthorized', 'President\nAttest'}</t>
+    <t>Variants found: {'Title Association', 'Title Ins', 'Title Insurance'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'This\nCommitment', 'This Privacy', 'This Notice', 'This Commitment'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Commitment\nCondition', 'Commitment Conditions', 'Commitment Condition', 'Commitment Date'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Proposed Insured', 'Proposed Amount', 'Proposed Policy'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'President\nAttest', 'President\nAuthorized'}</t>
   </si>
   <si>
     <t>Variants found: {'Main Phone', 'Main Fax'}</t>
   </si>
   <si>
-    <t>Variants found: {'The Land', 'The Proposed', 'The West', 'The State', 'The Title', 'The Company', 'The Policy', 'The Service', 'The\nPrivacy'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Real Property', 'Real Estate'}</t>
+    <t>Variants found: {'The Policy', 'The West', 'The\nPrivacy', 'The Company', 'The Service', 'The Proposed', 'The Title', 'The State', 'The Land'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Real Estate', 'Real Property'}</t>
   </si>
   <si>
     <t>Variants found: {'Special Exceptions', 'Special Coverage'}</t>
@@ -352,19 +352,19 @@
     <t>Variants found: {'Caryl Halfwassen', 'Caryl\nHalfwassen'}</t>
   </si>
   <si>
-    <t>Variants found: {'Internet Protocol', 'Internet Crime'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Privacy Statement', 'Privacy Notice', 'Privacy Inquiry', 'Privacy\nNotice'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Personal\nInformation', 'Personal Information'}</t>
+    <t>Variants found: {'Internet Crime', 'Internet Protocol'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Privacy\nNotice', 'Privacy Statement', 'Privacy Notice', 'Privacy Inquiry'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Personal Information', 'Personal\nInformation'}</t>
   </si>
   <si>
     <t>Variants found: {'Browsing\nInformation', 'Browsing Information'}</t>
   </si>
   <si>
-    <t>Variants found: {'Other Online', 'Other Sites', 'Other Counties'}</t>
+    <t>Variants found: {'Other Counties', 'Other Sites', 'Other Online'}</t>
   </si>
   <si>
     <t>Variants found: {'Do Not', 'Do\nNot'}</t>
@@ -373,7 +373,7 @@
     <t>Variants found: {'Your Consent', 'Your Information'}</t>
   </si>
   <si>
-    <t>Variants found: {'For California', 'For Virginia', 'For Nevada', 'For Oregon'}</t>
+    <t>Variants found: {'For Virginia', 'For Nevada', 'For Oregon', 'For California'}</t>
   </si>
   <si>
     <t>Variants found: {'Nebraska Form', 'Nebraska\nCourtesy'}</t>
@@ -550,12 +550,7 @@
     <t>How nor, Own or, Town or, Down or, How or, Shown or, Horn or, Gown or, Hewn or, Sown or, Howl or, Mown or, Hows or, HON or, Hoon or, Howe or, Hon or</t>
   </si>
   <si>
-    <t xml:space="preserve">LLM enhancement unavailable. Error: 
-You tried to access openai.ChatCompletion, but this is no longer supported in openai&gt;=1.0.0 - see the README at https://github.com/openai/openai-python for the API.
-You can run `openai migrate` to automatically upgrade your codebase to use the 1.0.0 interface. 
-Alternatively, you can pin your installation to the old version, e.g. `pip install openai==0.28`
-A detailed migration guide is available here: https://github.com/openai/openai-python/discussions/742
-</t>
+    <t>LLM enhancement unavailable. Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
   </si>
   <si>
     <t>Could not resolve name variation via LLM.</t>
@@ -567,12 +562,7 @@
     <t>Please add this information</t>
   </si>
   <si>
-    <t xml:space="preserve">LLM error: 
-You tried to access openai.ChatCompletion, but this is no longer supported in openai&gt;=1.0.0 - see the README at https://github.com/openai/openai-python for the API.
-You can run `openai migrate` to automatically upgrade your codebase to use the 1.0.0 interface. 
-Alternatively, you can pin your installation to the old version, e.g. `pip install openai==0.28`
-A detailed migration guide is available here: https://github.com/openai/openai-python/discussions/742
-</t>
+    <t>LLM error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
   </si>
 </sst>
 </file>

--- a/reports/error_report.xlsx
+++ b/reports/error_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="203">
   <si>
     <t>Document</t>
   </si>
@@ -319,37 +319,37 @@
     <t>LLM-enhanced review of spelling/grammar:</t>
   </si>
   <si>
-    <t>Variants found: {'Title Association', 'Title Ins', 'Title Insurance'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'This\nCommitment', 'This Privacy', 'This Notice', 'This Commitment'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Commitment\nCondition', 'Commitment Conditions', 'Commitment Condition', 'Commitment Date'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'Proposed Insured', 'Proposed Amount', 'Proposed Policy'}</t>
+    <t>Variants found: {'Title Ins', 'Title Association', 'Title Insurance'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'This Notice', 'This\nCommitment', 'This Commitment', 'This Privacy'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Commitment Date', 'Commitment Condition', 'Commitment Conditions', 'Commitment\nCondition'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'Proposed Amount', 'Proposed Insured', 'Proposed Policy'}</t>
   </si>
   <si>
     <t>Variants found: {'President\nAttest', 'President\nAuthorized'}</t>
   </si>
   <si>
-    <t>Variants found: {'Main Phone', 'Main Fax'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'The Policy', 'The West', 'The\nPrivacy', 'The Company', 'The Service', 'The Proposed', 'The Title', 'The State', 'The Land'}</t>
+    <t>Variants found: {'Main Fax', 'Main Phone'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'The Service', 'The Company', 'The West', 'The Land', 'The Proposed', 'The\nPrivacy', 'The Title', 'The Policy', 'The State'}</t>
   </si>
   <si>
     <t>Variants found: {'Real Estate', 'Real Property'}</t>
   </si>
   <si>
-    <t>Variants found: {'Special Exceptions', 'Special Coverage'}</t>
+    <t>Variants found: {'Special Coverage', 'Special Exceptions'}</t>
   </si>
   <si>
     <t>Variants found: {'Discriminatory Covenant', 'Discriminatory Covenants'}</t>
   </si>
   <si>
-    <t>Variants found: {'Caryl Halfwassen', 'Caryl\nHalfwassen'}</t>
+    <t>Variants found: {'Caryl\nHalfwassen', 'Caryl Halfwassen'}</t>
   </si>
   <si>
     <t>Variants found: {'Internet Crime', 'Internet Protocol'}</t>
@@ -364,22 +364,22 @@
     <t>Variants found: {'Browsing\nInformation', 'Browsing Information'}</t>
   </si>
   <si>
-    <t>Variants found: {'Other Counties', 'Other Sites', 'Other Online'}</t>
+    <t>Variants found: {'Other Sites', 'Other Counties', 'Other Online'}</t>
   </si>
   <si>
     <t>Variants found: {'Do Not', 'Do\nNot'}</t>
   </si>
   <si>
-    <t>Variants found: {'Your Consent', 'Your Information'}</t>
-  </si>
-  <si>
-    <t>Variants found: {'For Virginia', 'For Nevada', 'For Oregon', 'For California'}</t>
+    <t>Variants found: {'Your Information', 'Your Consent'}</t>
+  </si>
+  <si>
+    <t>Variants found: {'For Oregon', 'For Virginia', 'For Nevada', 'For California'}</t>
   </si>
   <si>
     <t>Variants found: {'Nebraska Form', 'Nebraska\nCourtesy'}</t>
   </si>
   <si>
-    <t>Variants found: {'Louis City', 'Louis County'}</t>
+    <t>Variants found: {'Louis County', 'Louis City'}</t>
   </si>
   <si>
     <t>2023-04-13 00:00:00 appears after 2021-07-01 00:00:00</t>
@@ -550,10 +550,394 @@
     <t>How nor, Own or, Town or, Down or, How or, Shown or, Horn or, Gown or, Hewn or, Sown or, Howl or, Mown or, Hows or, HON or, Hoon or, Howe or, Hon or</t>
   </si>
   <si>
-    <t>LLM enhancement unavailable. Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
-  </si>
-  <si>
-    <t>Could not resolve name variation via LLM.</t>
+    <t>Here are the errors found in the text with their corrections:
+1. **Error:** "2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company ."
+**Correction:** "2021 ALTA ® Commitment for Title Insurance, issued by Fidelity National Title Insurance Company."
+**Reason:** Added a comma after "Insurance" for better punctuation and clarity.
+2. **Error:** "This Commitment is not valid without the Notice; the Commitment to Issue Policy; the Commitment Conditions; Schedule A; Schedule B, Part I-Requirements; Schedule B, Part II-Exceptions; and a counter-signature by the Company or its issuing agent that may be in electronic form."
+**Correction:** "This Commitment is not valid without the Notice, the Commitment to Issue Policy, the Commitment Conditions, Schedule A, Schedule B (Part I - Requirements), Schedule B (Part II - Exceptions), and a counter-signature by the Company or its issuing agent, which may be in electronic form."
+**Reason:** Added commas for better punctuation and clarity, and also added parentheses around the part numbers for better formatting.
+3. **Error:** "The use of this Form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing as of the date of use."
+**Correction:** "The use of this form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing as of the date of use."
+**Reason:** Changed "Form" to "form" as it is not a proper noun in this context.
+4. **Error:** "Reprinted under license from the American Land Title Association. ALTA Commitment for Title Insurance w-NE Mod (07/01/2021) Printed: 04.13.23 @09:51 AM"
+**Correction:** "Reprinted under license from the American Land Title Association. ALTA Commitment for Title Insurance w-NE Mod (07/01/2021). Printed: 04/13/23 at 09:51 AM"
+**Reason:** Added a period after the date "07/01/2021" for better punctuation, and also changed the format of the date "04.13.23" to "04/13/23" for consistency. Additionally, changed "@" to "at" for better readability.
+5. **Error:** "Page 1 KS-FT-FKCM -03000.250310 -SPS- 1-23-KCC230811ALTA COMMITMENT FOR TITLE INSURANCE"
+**Correction:** "Page 1: KS-FT-FKCM-03000.250310-SPS-1-23-KCC230811. ALTA Commitment for Title Insurance"
+**Reason:** Added a colon after "Page 1" for better punctuation, and also added a period after the code "KCC230811" for better formatting. Additionally, changed "ALTA COMMITMENT FOR TITLE INSURANCE" to "ALTA Commitment for Title Insurance" for consistency in capitalization.
+6. **Error:** "Commitment  Number: issued by: KCC230811"
+**Correction:** "Commitment Number: KCC230811, issued by: [insert issuer's name]"
+**Reason:** Added a comma after "KCC230811" for better punctuation, and also added a placeholder for the issuer's name.
+7. **Error:** "NOTICE IMPORTANT - READ CAREFULLY:   THIS COMMITMENT IS AN OFFER TO ISSUE ONE"
+**Correction:** "NOTICE: Important - Read Carefully. This Commitment is an offer to issue one."
+**Reason:** Added a colon after "NOTICE" for better punctuation, and also changed the capitalization of "IMPORTANT" to "Important" for consistency. Additionally, added a period after "Carefully" for better punctuation. | Here are the errors found in the text with their corresponding corrections:
+1. "OR MORE TITLE" should be "OR MORE TITLE" is not a complete sentence, consider rephrasing to "THIS COMMITMENT PERTAINS TO ONE OR MORE TITLE INSURANCE POLICIES."
+   Corrected version: "THIS COMMITMENT PERTAINS TO ONE OR MORE TITLE INSURANCE POLICIES."
+2. The text lacks a clear and concise title. Consider adding a title that reflects the content of the document.
+   Corrected version: Add a title such as "TITLE INSURANCE COMMITMENT" at the beginning of the document.
+3. The sentence "ALL CLAIMS OR REMEDIES SOUGHT AGAINST THE COMPANY INVOLVING THE CONTENT OF THIS COMMITMENT OR THE POLICY MUST BE BASED SOLELY IN CONTRACT." is a long sentence and could be broken up for clarity.
+   Corrected version: Consider breaking it into two sentences: "All claims or remedies sought against the company involving the content of this commitment or the policy must be based solely in contract. This means that any claims or remedies will be governed by the terms of this commitment and the policy."
+4. The sentence "THIS COMMITMENT IS NOT AN ABSTRACT OF TITLE, REPORT OF THE CONDITION OF TITLE, LEGAL OPINION, OPINION OF TITLE, OR OTHER REPRESENTATION OF THE STATUS OF TITLE." is a long sentence and could be broken up for clarity.
+   Corrected version: Consider breaking it into two sentences: "This commitment is not an abstract of title or a report of the condition of title. It is also not a legal opinion, opinion of title, or other representation of the status of title."
+5. The phrase "WERE PERFORMED SOLELY FOR THE BENEFIT OF THE COMPANY" could be rephrased for clarity.
+   Corrected version: Consider rephrasing to "were performed exclusively for the company's benefit".
+6. The sentence "THE COMPANY'S OBLIGATION UNDER THIS COMMITMENT IS TO ISSUE A POLICY TO A PROPOSED INSURED IDENTIFIED IN SCHEDULE A IN ACCORDANCE WITH THE TERMS AND PROVISIONS OF THIS COMMITMENT." is a long sentence and could be broken up for clarity.
+   Corrected version: Consider breaking it into two sentences: "The company's obligation under this commitment is to issue a policy to a proposed insured identified in Schedule A. This policy will be issued in accordance with the terms and provisions of this commitment."
+7. The phrase "INVOLVING THE CONTENT OF THIS COMMITMENT" could be rephrased for clarity.
+   Corrected version: Consider rephrasing to "related to this commitment".
+8. The sentence "THE COMPANY HAS NO LIABILITY OR OBLIGATION INVOLVING THE CONTENT OF THIS COMMITMENT TO ANY OTHER PERSON." could be rephrased for clarity.
+   Corrected version: Consider rephrasing to "The company has no liability or obligation related to this commitment to any person other than the proposed insured."
+9. The title "COMMITMENT TO ISSUE POLICY" could be rephrased for clarity.
+   Corrected version: Consider rephrasing to "Commitment to Issue Title Insurance Policy".
+10. The text "Subject to the Notice; Schedule B, Part I-Requirements; Schedule B, P" appears to be a fragment and could be rephrased for clarity.
+    Corrected version: Consider rephrasing to "This commitment is subject to the notice, Schedule B, Part I-Requirements, and Schedule B, Part II."
+Here is the corrected text:
+"TITLE INSURANCE COMMITMENT
+THIS COMMITMENT PERTAINS TO ONE OR MORE TITLE INSURANCE POLICIES. All claims or remedies sought against the company involving the content of this commitment or the policy must be based solely in contract. This means that any claims or remedies will be governed by the terms of this commitment and the policy.
+This commitment is not an abstract of title or a report of the condition of title. It is also not a legal opinion, opinion of title, or other representation of the status of title.
+The procedures used by the company to determine insurability of the title, including any search and examination, are proprietary to the company, were performed exclusively for the company's benefit, and create no extraccontractual liability to any person, including a proposed insured.
+The company's obligation under this commitment is to issue a policy to a proposed insured identified in Schedule A. This policy will be issued in accordance with the terms and provisions of this commitment.
+The company has no liability or obligation related to this commitment to any person other than the proposed insured.
+COMMITMENT TO ISSUE TITLE INSURANCE POLICY
+This commitment is subject to the notice, Schedule B, Part I-Requirements, and Schedule B, Part II." | Here is the list of errors and corrections:
+1. "aFlorida" should be "a Florida" (missing space between "a" and "Florida")
+   Error: "aFlorida"
+   Correction: "a Florida"
+2. "entered in Schedule A" should be "entered into Schedule A" ( incorrect preposition usage)
+   Error: "entered in Schedule A"
+   Correction: "entered into Schedule A"
+3. "one hundred eighty (180) days" is correct, but for consistency, it's better to use either the numeral or the written form, not both. However, this is not an error, just a suggestion for improvement.
+   Suggestion: "one hundred eighty days" or "180 days"
+4. "Countersigned By:" and "Authorized Officer or Agent" seem to be overlapping titles. It's likely that "Countersigned By:" should be removed or rephrased for clarity.
+   Error: Potential ambiguity in titles
+   Correction: Remove or rephrase "Countersigned By:" for clarity, e.g., "Authorized Officer or Agent: Michael J. Nolan, President"
+5. The title "President" is used for both James Hemenway and Michael J. Nolan. If they hold different positions, the titles should be distinct.
+   Error: Potential ambiguity in titles
+   Correction: Verify and correct the titles to reflect the actual positions held by James Hemenway and Michael J. Nolan.
+6. There is no punctuation error or spelling mistake found in the given text apart from the ones mentioned above.
+Corrected text:
+``` 
+Article II-Exceptions; and the Commitment Conditions,
+Fidelity National Title Insurance Company, a Florida corporation (the "Company"), commits to issue the Policy according to
+the terms and provisions of this Commitment.  This Commitment is effective as of the Commitment Date shown in
+Schedule A for each Policy described in Schedule A, only when the Company has entered into Schedule A both the
+specified dollar amount as the Proposed Amount of Insurance and the name of the Proposed Insured.
+If all of the Schedule B, Part I-Requirements have not been met within one hundred eighty days after the
+Commitment Date, this Commitment terminates and the Company's liability and obligation end.
+Fidelity National Title Insurance Company
+By:
+Authorized Officer or Agent: 
+James Hemenway, President
+Michael J. Nolan, [Verified Title]
+Attest:
+Marjorie Nemzura, Secretary
+This page is only a part of a 2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company
+``` | Here is the list of errors and corrections:
+1. **Missing article**: "This Commitment" should be "The Commitment" to maintain proper grammar.
+   Error: "This Commitment is not valid without"
+   Correction: "The Commitment is not valid without"
+2. **Lack of Oxford comma**: Although not strictly an error, adding an Oxford comma can improve clarity.
+   Error: "Schedule A; Schedule B, Part I-Requirements; Schedule B, Part II-Exceptions"
+   Correction: "Schedule A, Schedule B, Part I-Requirements, Schedule B, Part II-Exceptions"
+3. **Inconsistent punctuation**: The use of semicolons and commas seems inconsistent. For lists, commas are typically used.
+   Error: "the Notice; the Commitment to Issue Policy; the Commitment Conditions; Schedule A; Schedule B, Part I-Requirements; Schedule B, Part II-Exceptions"
+   Correction: "the Notice, the Commitment to Issue Policy, the Commitment Conditions, Schedule A, Schedule B, Part I-Requirements, Schedule B, Part II-Exceptions"
+4. **Potential punctuation issue**: The sentence "The use of this Form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing as of the date of use." could be improved with a comma after "thereof" for clarity.
+   Error: "The use of this Form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing as of the date of use."
+   Correction: "The use of this Form (or any derivative thereof), is restricted to ALTA licensees and ALTA members in good standing as of the date of use."
+5. **Lack of space**: There is no space between "Co" and "6700" in "Fidelity National Title Ins Co6700".
+   Error: "Fidelity National Title Ins Co6700"
+   Correction: "Fidelity National Title Ins Co 6700"
+6. **Inconsistent spacing**: The spacing between lines and sections seems inconsistent, which could be improved for readability.
+   Error: Not specifically quoted, as it pertains to the overall formatting.
+7. **Abrupt ending**: The text seems to end abruptly without a clear conclusion or separation of sections.
+   Error: Not specifically quoted, as it pertains to the overall structure.
+Corrected text:
+"The Commitment is not valid without the Notice, the Commitment to Issue Policy, the Commitment Conditions, Schedule A, Schedule B, Part I-Requirements, Schedule B, Part II-Exceptions, and a counter-signature by the Company or its issuing agent that may be in electronic form.
+Copyright American Land Title Association. All rights reserved.
+The use of this Form (or any derivative thereof), is restricted to ALTA licensees and ALTA members in good standing as of the date of use. All other uses are prohibited. Reprinted under license from the American Land Title Association.
+ALTA Commitment for Title Insurance w-NE Mod (07/01/2021) Printed: 04.13.23 @09:51 AM
+Page 2 KS-FT-FKCM -03000.250310 -SPS- 1-23-KCC230811FIDELITY NATIONAL TITLE INSURANCE COMPANY COMMITMENT NO. KCC230811
+Transaction Identification Data, for which the Company assumes no liability as set forth in Commitment Condition 5.e.:
+ISSUING OFFICE : FOR SETTLEMENT INQUIRIES, CONTACT:
+Fidelity National Title Ins Co 6700 Colle..." 
+Note: The corrections provided focus on grammar, punctuation, and minor formatting issues. The text's overall structure and content may require additional review to ensure compliance with title insurance document standards. | Here are the errors found in the text with their corresponding corrections:
+1. "ge Blvd." should be a complete address, but it seems to be incomplete. 
+   Correction: Provide the complete address, e.g., "12345 ge Blvd."
+2. "Cade Kaufman@fnf.com" should be "Cade Kaufman &lt;cade.kaufman@fnf.com&gt;" for consistency with the email address provided later.
+   Correction: Cade Kaufman &lt;cade.kaufman@fnf.com&gt;
+3. "Main Phone: (913)451-1026Escrow Officer:" should have a space between the phone number and "Escrow Officer:" for better readability.
+   Correction: Main Phone: (913)451-1026 Escrow Officer:
+4. "Fidelity National Title 2651 North Harwood, Suite 450" should have a line break or a comma after "Title" for better formatting.
+   Correction: Fidelity National Title, 
+               2651 North Harwood, Suite 450
+5. "Phone: (972)993-1905 Main Phone: (214)954-0734" seems to have redundant phone numbers. 
+   Correction: Remove one of the "Main Phone" entries, e.g., "Phone: (972)993-1905, Main Phone: (214)954-0734"
+6. "Main Fax: (972)692-6951" should be on a new line for better formatting.
+   Correction: 
+   Phone: (972)993-1905, Main Phone: (214)954-0734
+   Main Fax: (972)692-6951
+7. "Email: cade.kauffman@fnf.com" has a different email address than "Cade Kaufman@fnf.com" (note the extra 'n' in "kauffman").
+   Correction: Ensure the email addresses are consistent, e.g., "Email: cade.kaufman@fnf.com"
+8. "at08:00 AM" should have a space between "at" and the time.
+   Correction: at 08:00 AM
+9. "Proposed Insured: Purchaser with contractual rights under a purchase agreement with the vested owner identified at Item 4 below" is missing the actual item 4.
+   Correction: Provide the actual item 4 with the vested owner's information.
+10. "Proposed Insured: Lender with contractual obligations under a loan agreement with the proposed insured owner identified in Item 2 above." should refer to a specific item with the proposed insured owner's information.
+    Correction: Provide the actual item with the proposed insured owner's information.
+11. The text seems to be cut off at "3. The e". It is likely that this is not the complete document.
+    Correction: Provide the complete document for a thorough review.
+Here's the corrected version of the text:
+"""
+12345 ge Blvd.
+Overland Park, KS 66211
+Main Phone: (913)451-1026 
+Escrow Officer: Cade Kaufman &lt;cade.kaufman@fnf.com&gt;
+Fidelity National Title, 
+2651 North Harwood, Suite 450
+Dallas, TX 75201
+Phone: (972)993-1905, Main Phone: (214)954-0734
+Main Fax: (972)692-6951
+Email: cade.kaufman@fnf.com
+Escrow No.: 9000342300123
+Order Number: KCC230811
+Property Address:
+SCHEDULE A
+1. Commitment Date: March 28, 2023, at 08:00 AM
+2. Policy to be issued:
+(a) ALTA Owner's Policy 2021
+Proposed Insured: Purchaser with contractual rights under a purchase agreement with the vested owner identified at Item 4 below
+Proposed Amount of Insurance: $5,000.00
+The estate or interest to be insured: Fee Simple as to Tract 1; Easement as to Tract 2
+(b) ALTA Loan Policy 2021
+Proposed Insured: Lender with contractual obligations under a loan agreement with the proposed insured owner identified in Item 2 above.
+Proposed Amount of Insurance: $5,000.00
+The estate or interest to be insured: Fee Simple as to Tract 1; Easement as to Tract 2
+3. [Please provide the complete document for a thorough review]
+""" | Here are the errors found in the text with their corresponding corrections:
+1. **Error:** "state or interest in the Land at the Commitment Date is:" (missing article)
+   **Correction:** "The state or interest in the Land at the Commitment Date is:"
+2. **Error:** "KAYAK INVESTMENTS, LLC" (lack of punctuation after the company name)
+   **Correction:** "KAYAK INVESTMENTS, LLC."
+3. **Error:** "SEE EXHIBIT "A" ATTACHED HERETO AND MADE A PART HEREOF" (all capital letters)
+   **Correction:** "See Exhibit "A" attached hereto and made a part hereof."
+4. **Error:** "END OF SCHEDULE A" (all capital letters)
+   **Correction:** "End of Schedule A."
+5. **Error:** "This page is only a part of a 2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company ." (missing punctuation after the company name)
+   **Correction:** "This page is only a part of a 2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company."
+6. **Error:** "the Notice; the Commitment to Issue Policy; the Commitment Conditions; Schedule A; Schedule B, Part I-Requirements; Schedule B, Part II-Exceptions; and a" (missing Oxford comma)
+   **Correction:** "the Notice, the Commitment to Issue Policy, the Commitment Conditions, Schedule A, Schedule B, Part I-Requirements, Schedule B, Part II-Exceptions, and a"
+7. **Error:** "Copyright American Land Title Association.  All rights reserved." (missing punctuation after "Association")
+   **Correction:** "Copyright American Land Title Association. All rights reserved."
+8. **Error:** "The use of this Form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing as" (missing punctuation after "standing")
+   **Correction:** "The use of this Form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing, as"
+9. **Error:** "of the date of use.  All other uses are prohibited.  Reprinted under license from the Ameri" (incomplete sentence)
+   **Correction:** "of the date of use. All other uses are prohibited. Reprinted under license from the American Land Title Association."
+Corrected text:
+``` 
+"The state or interest in the Land at the Commitment Date is:
+Fee Simple as to Tract 1; Easement as to Tract 2
+4. The Title is, at the Commitment Date, vested in:
+KAYAK INVESTMENTS, LLC.
+5. The Land is described as follows:
+See Exhibit "A" attached hereto and made a part hereof.
+End of Schedule A.
+EXHIBIT "A"
+Legal Description
+This page is only a part of a 2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company. 
+This Commitment is not valid without the Notice, the Commitment to Issue Policy, the Commitment Conditions, Schedule A, Schedule B, Part I-Requirements, Schedule B, Part II-Exceptions, and a counter-signature by the Company or its issuing agent that may be in electronic form.
+Copyright American Land Title Association. All rights reserved.
+The use of this Form (or any derivative thereof) is restricted to ALTA licensees and ALTA members in good standing, as of the date of use. All other uses are prohibited. Reprinted under license from the American Land Title Association.
+``` | Here are the errors found in the text with their corresponding corrections:
+1. "can Land Title Association" should be "Can Land Title Association" (capitalization error)
+   Corrected version: "Can Land Title Association"
+2. "w-NE Mod (07/01/2021)" is unclear, but it appears to be a model or form number. However, the hyphen before "NE" might be unnecessary. 
+   Corrected version: "W-NE Mod (07/01/2021)" or "W NE Mod (07/01/2021)" (added space for clarity)
+3. "Printed: 04.13.23 @09:51 AM" should be "Printed: 04/13/23 @ 09:51 AM" (added slashes for date and space around "@" for readability)
+   Corrected version: "Printed: 04/13/23 @ 09:51 AM"
+4. "Page 3 KS-FT-FKCM -03000.250310 -SPS- 1-23-KCC230811Tract 1:" is a long string without spaces. While it might be a valid identifier, it's hard to read. 
+   Corrected version: "Page 3: KS-FT-FKCM-03000.250310-SPS-1-23-KCC230811 Tract 1:" (added colon and spaces for readability)
+5. "The West Half (1/2) of Section 29 and the West Half (1/2) and Southeast Quarter (1/4) of Section 30, Township 24 North, Range 50 West of the 6th P.M., Box Butte County, Nebraska." is a long sentence. Consider breaking it into two sentences for better readability.
+   Corrected version: "The West Half (1/2) of Section 29 and the West Half (1/2) and Southeast Quarter (1/4) of Section 30 are located in Township 24 North, Range 50 West of the 6th P.M., Box Butte County, Nebraska."
+6. "Tract 2: Easement for access, ingress and egress created by Easement dated January 30, 2009 and recorded February 18, 2009 in Book 97 at Page 189." is a long sentence. Consider breaking it into two sentences for better readability.
+   Corrected version: "Tract 2: An easement for access, ingress, and egress was created by an easement dated January 30, 2009. This easement was recorded on February 18, 2009, in Book 97 at Page 189."
+7. "This page is only a part of a 2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company ." has a period at the end, but the next sentence seems to be a continuation of the same thought. Consider using a semicolon or making it a new sentence.
+   Corrected version: "This page is only a part of a 2021 ALTA ® Commitment for Title Insurance issued by Fidelity National Title Insurance Company; this Commitment is not valid without the following components:"
+8. "This Commitment is not valid without the Notice; the Commitment to Issue Policy; the Commitment Conditions; Schedule A; Schedule B, Part I-Requirements; Schedule B, Part II-Exceptions; and a counter-signature by the Company or its issuing agent that may be in electronic form." is a long sentence with multiple semicolons. Consider breaking it into a list for better readability.
+   Corrected version: "This Commitment is not valid without the following components: 
+   - The Notice
+   - The Commitment to Issue Policy
+   - The Commitment Conditions
+   - Schedule A
+   - Schedule B, Part I-Requirements
+   - Schedule B, Part II-Exceptions
+   - A counter-signature by the Company or its issuing agent (which may be in electronic form)"
+9. "Copyright American Land Title Association.  All rights reserved." has two periods, which might be unnecessary. 
+   Corrected version: "Copyright American Land Title Association. All rights reserved."
+10. "The use of this Form (or any" seems to be an incomplete sentence. 
+    Corrected version: "The use of this form (or any part of it) is subject to the terms and conditions of the American Land Title Association." (completed the sentence) | Here are the errors found in the text with their corresponding corrections:
+1. "bo" should be "or" (typo)
+   Error: "...convey the Title or create the Mortgage to be insured, or bo"
+   Correction: "...convey the Title or create the Mortgage to be insured, or"
+2. Missing article ("the") before "Company" in some instances, but it's not strictly an error. However, for consistency, it's better to include the article.
+   Error: "...pay the premiums, fees, and charges for the Policy to the Company."
+   Correction: "...pay the premiums, fees, and charges for the Policy to the Company." (No change needed, but it's consistent with other instances)
+3. The text seems to be a formal document, and the date format is not consistent. It's better to use a standard format for dates.
+   Error: "Printed: 04.13.23 @09:51 AM"
+   Correction: "Printed: April 13, 2023, at 09:51 AM" (or a standard format agreed upon by the company)
+4. The text uses both "the Company" and "the Company" with the full name ("FIDELITY NATIONAL TITLE INSURANCE COMPANY"). For consistency, it's better to use one format throughout the document.
+   Error: "...the Company..." and "...FIDELITY NATIONAL TITLE INSURANCE COMPANY..."
+   Correction: Use one format throughout, e.g., "the Company" for all instances.
+5. The sentence structure and punctuation are mostly correct, but some sentences are long and could be broken up for clarity.
+   Error: None, but a suggestion for improvement.
+6. The use of abbreviations like "ALTA" is assumed to be defined elsewhere in the document. If not, it should be defined.
+   Error: None, but a suggestion for improvement.
+7. The text uses "w-NE Mod (07/01/2021)" which seems to be a version or revision date. It's better to include a clear description of what this refers to.
+   Error: None, but a suggestion for improvement.
+The corrected text would look like this:
+"""derivative thereof) is restricted to ALTA licensees and ALTA members in good standing as of the date of use. All other uses are prohibited. Reprinted under license from the American Land Title Association.
+ALTA Commitment for Title Insurance w-NE Mod (July 1, 2021) Printed: April 13, 2023, at 09:51 AM
+Page 4 KS-FT-FKCM -03000.250310 -SPS- 1-23-KCC230811 FIDELITY NATIONAL TITLE INSURANCE COMPANY COMMITMENT NO. KCC230811
+SCHEDULE B, PART I - Requirements
+All of the following Requirements must be met:
+1. The Proposed Insured must notify the Company in writing of the name of any party not referred to in this Commitment who will obtain an interest in the Land or who will make a loan on the Land. The Company may then make additional Requirements or Exceptions.
+2. Pay the agreed amount for the estate or interest to be insured.
+3. Pay the premiums, fees, and charges for the Policy to the Company.
+4. Documents satisfactory to the Company that convey the Title or create the Mortgage to be insured, or""" | Here are the errors found in the text along with their corrections:
+1. "th, must" should be "The" to start the sentence properly.
+   Error: "th, must"
+   Correction: "The"
+2. The sentence "The Company will require the following documents for review prior to the issuance of any title insurance predicated upon a conveyance or encumbrance from the entity named below." is a sentence fragment and should be connected to the previous sentence or made into a separate paragraph for clarity.
+   Error: Sentence fragmentation
+   Correction: Consider adding a period after "Records." and starting a new paragraph for the sentence.
+3. "predicated" could be replaced with a more common term such as "based" for better understanding.
+   Error: Uncommon terminology
+   Correction: "based"
+4. "Limited Liability Company:   KAYAK INVESTMENTS, LLC" should be formatted properly, possibly as a separate line or with proper indentation.
+   Error: Formatting
+   Correction: Consider formatting it as "Limited Liability Company: KAYAK INVESTMENTS, LLC" or on a separate line.
+5. In "a. A copy of its operating agreement, if any, and any and all amendments, supplements and/or modifications thereto, certified by the appropriate manager or member.", a comma after "member" would improve clarity.
+   Error: Lack of comma
+   Correction: "a. A copy of its operating agreement, if any, and any and all amendments, supplements, and/or modifications thereto, certified by the appropriate manager or member."
+6. "b. If a domestic Limited Liability Company, a copy of its Articles of Organization and all amendment thereto with the appropriate filing stamps." is missing a comma after "amendment" for proper punctuation.
+   Error: Missing comma
+   Correction: "b. If a domestic Limited Liability Company, a copy of its Articles of Organization and all amendments, thereto with the appropriate filing stamps."
+7. "c. If the Limited Liability Company is  member-managed a full and complete current list of members certified by the appropriate manager or  member." is missing a comma after "member-managed" and has an unnecessary space before "member".
+   Error: Missing comma and unnecessary space
+   Correction: "c. If the Limited Liability Company is member-managed, a full and complete current list of members certified by the appropriate manager or member."
+8. "d. A current dated certificate of good standing from the proper governmental authority of the state in which the entity was created" should be "d. A currently dated certificate" for grammatical correctness.
+   Error: Grammatical error
+   Correction: "d. A currently dated certificate of good standing from the proper governmental authority of the state in which the entity was created"
+9. "e. If less than all members, or managers, as appropriate, will be executing the clos" seems to be incomplete. It should be completed or clearly indicate it is a fragment that will be continued.
+   Error: Incomplete sentence
+   Correction: Complete the sentence or add an ellipsis (...) to indicate continuation.
+Corrected text:
+"The must be properly authorized, executed, delivered, and recorded in the Public Records.
+The Company will require the following documents for review prior to the issuance of any title insurance based upon a conveyance or encumbrance from the entity named below.
+Limited Liability Company: KAYAK INVESTMENTS, LLC
+a. A copy of its operating agreement, if any, and any and all amendments, supplements, and/or modifications thereto, certified by the appropriate manager or member.
+b. If a domestic Limited Liability Company, a copy of its Articles of Organization and all amendments, thereto with the appropriate filing stamps.
+c. If the Limited Liability Company is member-managed, a full and complete current list of members certified by the appropriate manager or member.
+d. A currently dated certificate of good standing from the proper governmental authority of the state in which the entity was created
+e. If less than all members, or managers, as appropriate, will be executing the closing..." | Here are the errors found in the text with their corresponding corrections:
+1. "ing documents," should be "Regarding documents," (missing word and punctuation)
+   Corrected version: "Regarding documents,"
+2. "furnish evidence of the authority of those signing." should be "furnish evidence of the authority of those signing;" (missing punctuation)
+   Corrected version: "furnish evidence of the authority of those signing;"
+3. "The Company reserves the right to add additional items or make further requirements after review of the requested documentation." is a sentence fragment and should be connected to the previous sentence or made into a separate sentence with proper punctuation.
+   Corrected version: "The Company reserves the right to add additional items or make further requirements after reviewing the requested documentation."
+4. "6. The search did not disclose any open mortgages or deeds of trust of record, therefore the Company reserves the right to require further evidence to confirm that the property is unencumbered, and further reserves the right to make additional requirements or add additional items or exceptions upon receipt of the requested evidence." is a long sentence and could be broken up for clarity.
+   Corrected version: "6. The search did not disclose any open mortgages or deeds of trust of record. Therefore, the Company reserves the right to require further evidence to confirm that the property is unencumbered. The Company further reserves the right to make additional requirements or add additional items or exceptions upon receipt of the requested evidence."
+5. "7. The State of Nebraska requires that deeds transferring real estate be accompanied by the Real Estate Transfer Statement - Form 521." should be "7. The State of Nebraska requires that deeds transferring real estate be accompanied by the Real Estate Transfer Statement (Form 521)." (punctuation and formatting)
+   Corrected version: "7. The State of Nebraska requires that deeds transferring real estate be accompanied by the Real Estate Transfer Statement (Form 521)."
+6. "This form must be executed by the Grantee (Buyer)." could be rephrased for clarity.
+   Correcte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12111, Requested 65. Please try again in 882ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12100, Requested 69. Please try again in 847ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12088, Requested 75. Please try again in 817ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12077, Requested 66. Please try again in 719ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12069, Requested 63. Please try again in 660ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12060, Requested 58. Please try again in 590ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12051, Requested 83. Please try again in 670ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12040, Requested 60. Please try again in 503ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12031, Requested 62. Please try again in 467ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12019, Requested 66. Please try again in 429ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12009, Requested 62. Please try again in 359ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11959, Requested 62. Please try again in 102ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11945, Requested 71. Please try again in 77.999999ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t>After analyzing the names, I believe they are potentially referring to the same person or entity. The difference in the names appears to be a line break or newline character ('\n') in the second name.
+A consistent name could be: 'Personal Information'
+This name suggests that the field or section is related to personal details or data, and removing the line break character helps to standardize the naming convention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12006, Requested 64. Please try again in 350ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11997, Requested 64. Please try again in 304ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11986, Requested 57. Please try again in 215ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11975, Requested 61. Please try again in 176ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11965, Requested 67. Please try again in 158ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11955, Requested 62. Please try again in 81ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11944, Requested 59. Please try again in 15ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
   </si>
   <si>
     <t>Verify the timeline</t>
@@ -562,7 +946,66 @@
     <t>Please add this information</t>
   </si>
   <si>
-    <t>LLM error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+    <t xml:space="preserve">GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11923, Requested 350. Please try again in 1.365s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11913, Requested 349. Please try again in 1.31s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11904, Requested 350. Please try again in 1.27s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11895, Requested 349. Please try again in 1.219s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11885, Requested 349. Please try again in 1.167s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11876, Requested 350. Please try again in 1.126s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11866, Requested 350. Please try again in 1.08s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11856, Requested 349. Please try again in 1.024999999s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11847, Requested 349. Please try again in 978ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11836, Requested 349. Please try again in 925ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11826, Requested 350. Please try again in 880ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11818, Requested 350. Please try again in 838ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11794, Requested 350. Please try again in 718ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11754, Requested 350. Please try again in 518ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11712, Requested 349. Please try again in 303ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11686, Requested 350. Please try again in 175.999999ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11667, Requested 349. Please try again in 78ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | After reviewing the provided document text, the following important required fields or sections appear to be missing:
+1. Notice
+2. Commitment to Issue Policy
+3. Commitment Conditions
+4. Schedule A
+5. Schedule B, Part I - Requirements (only Part II - Exceptions is provided)
+6. Counter-signature by the Company or its issuing agent (may be in electronic form)
+These sections are mentioned in the document as necessary for the Commitment to be valid. Without them, the document appears to be incomplete. | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11987, Requested 349. Please try again in 1.678s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11974, Requested 350. Please try again in 1.619s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11962, Requested 349. Please try again in 1.555s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11953, Requested 349. Please try again in 1.507s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11943, Requested 349. Please try again in 1.459s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11932, Requested 349. Please try again in 1.401s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11922, Requested 349. Please try again in 1.351s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11912, Requested 350. Please try again in 1.306s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11902, Requested 349. Please try again in 1.253s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11890, Requested 349. Please try again in 1.193s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11864, Requested 349. Please try again in 1.065s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11849, Requested 350. Please try again in 993ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11840, Requested 350. Please try again in 949ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11825, Requested 350. Please try again in 873ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11814, Requested 352. Please try again in 830ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11805, Requested 352. Please try again in 780.999999ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11796, Requested 349. Please try again in 721ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11786, Requested 351. Please try again in 684ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11775, Requested 351. Please try again in 630ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11764, Requested 349. Please try again in 564ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11753, Requested 349. Please try again in 510ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11727, Requested 349. Please try again in 378ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11688, Requested 349. Please try again in 184ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 11661, Requested 349. Please try again in 50ms. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | After reviewing the provided document text, the following important required fields or sections appear to be missing:
+1. **Introduction or purpose statement**: The document seems to start abruptly without an introduction or a clear statement of purpose.
+2. **Title insurance policy information**: There is no mention of the title insurance policy number, policyholder's name, or other relevant policy details.
+3. **Property description**: The document does not contain a description of the property related to the title insurance, such as the property address, county, or parcel number.
+4. **Insurer's information**: Although the document mentions Fidelity National Title Ins Co, it does not provide a clear statement of the insurer's role, license number, or other essential details.
+5. **Kansas, Missouri, and Nebraska recording regulations**: The document mentions recording regulations for these states, but it does not provide a comprehensive overview of the regulations or how they apply to the title insurance policy.
+6. **Disclaimer or liability statement**: The document lacks a disclaimer or liability statement, which is typically included in title insurance documents to limit the insurer's liability.
+7. **Signature block**: There is no signature block or indication that the document requires signatures from the policyholder, insurer, or other parties involved.
+These missing fields and sections may be crucial for a complete and compliant title insurance document. | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12031, Requested 354. Please try again in 1.926s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12021, Requested 354. Please try again in 1.875s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+ | GROQ query failed. Error: GROQ query failed. Error: 429 {"error":{"message":"Rate limit reached for model `llama-3.3-70b-versatile` in organization `org_01jvf3s44gffv97sw3fc7am9am` service tier `on_demand` on tokens per minute (TPM): Limit 12000, Used 12012, Requested 221. Please try again in 1.165s. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing","type":"tokens","code":"rate_limit_exceeded"}}
+</t>
   </si>
 </sst>
 </file>
@@ -3762,7 +4205,7 @@
         <v>102</v>
       </c>
       <c r="E167" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3779,7 +4222,7 @@
         <v>103</v>
       </c>
       <c r="E168" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3796,7 +4239,7 @@
         <v>104</v>
       </c>
       <c r="E169" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3813,7 +4256,7 @@
         <v>105</v>
       </c>
       <c r="E170" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3830,7 +4273,7 @@
         <v>106</v>
       </c>
       <c r="E171" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3847,7 +4290,7 @@
         <v>107</v>
       </c>
       <c r="E172" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3864,7 +4307,7 @@
         <v>108</v>
       </c>
       <c r="E173" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3881,7 +4324,7 @@
         <v>109</v>
       </c>
       <c r="E174" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3898,7 +4341,7 @@
         <v>110</v>
       </c>
       <c r="E175" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3915,7 +4358,7 @@
         <v>111</v>
       </c>
       <c r="E176" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3932,7 +4375,7 @@
         <v>112</v>
       </c>
       <c r="E177" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3949,7 +4392,7 @@
         <v>113</v>
       </c>
       <c r="E178" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3966,7 +4409,7 @@
         <v>114</v>
       </c>
       <c r="E179" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3983,7 +4426,7 @@
         <v>115</v>
       </c>
       <c r="E180" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4000,7 +4443,7 @@
         <v>116</v>
       </c>
       <c r="E181" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4017,7 +4460,7 @@
         <v>117</v>
       </c>
       <c r="E182" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4034,7 +4477,7 @@
         <v>118</v>
       </c>
       <c r="E183" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4051,7 +4494,7 @@
         <v>119</v>
       </c>
       <c r="E184" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4068,7 +4511,7 @@
         <v>120</v>
       </c>
       <c r="E185" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4085,7 +4528,7 @@
         <v>121</v>
       </c>
       <c r="E186" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4102,7 +4545,7 @@
         <v>122</v>
       </c>
       <c r="E187" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4119,7 +4562,7 @@
         <v>122</v>
       </c>
       <c r="E188" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4136,7 +4579,7 @@
         <v>122</v>
       </c>
       <c r="E189" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4153,7 +4596,7 @@
         <v>122</v>
       </c>
       <c r="E190" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4170,7 +4613,7 @@
         <v>122</v>
       </c>
       <c r="E191" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4187,7 +4630,7 @@
         <v>122</v>
       </c>
       <c r="E192" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4204,7 +4647,7 @@
         <v>122</v>
       </c>
       <c r="E193" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4221,7 +4664,7 @@
         <v>122</v>
       </c>
       <c r="E194" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4238,7 +4681,7 @@
         <v>123</v>
       </c>
       <c r="E195" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4255,7 +4698,7 @@
         <v>124</v>
       </c>
       <c r="E196" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4272,7 +4715,7 @@
         <v>125</v>
       </c>
       <c r="E197" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4289,7 +4732,7 @@
         <v>126</v>
       </c>
       <c r="E198" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
